--- a/server/excels/contractCycle.xlsx
+++ b/server/excels/contractCycle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>نام استان</t>
   </si>
@@ -97,15 +97,6 @@
   </si>
   <si>
     <t>تاریخ رفع نقص</t>
-  </si>
-  <si>
-    <t>تاریخ شروع دوره تضمین</t>
-  </si>
-  <si>
-    <t>تاریخ محاسبه ای پایان دوره تضمین</t>
-  </si>
-  <si>
-    <t>مدت زمان تا پایان دوره تضمین</t>
   </si>
   <si>
     <t>تاریخ صورتجلسه تحویل قطعی</t>
@@ -121,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="157.5">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -604,16 +595,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
